--- a/process data/1.xlsx
+++ b/process data/1.xlsx
@@ -3,11 +3,10 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Test" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -419,28 +418,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="n">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>